--- a/biology/Zoologie/Cetotheriidae/Cetotheriidae.xlsx
+++ b/biology/Zoologie/Cetotheriidae/Cetotheriidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cetotheriidae sont une famille de baleines du sous-ordre des Mysticeti.
-Ce groupe, considéré comme éteint, s'est vu rattacher en 2013[3] une espèce rare de baleine, la Baleine pygmée (Caperea marginata). Cependant le site « Mammal Species of the World » (MSW) l'inclut dans une autre famille : les Neobalaenidae[4].
+Ce groupe, considéré comme éteint, s'est vu rattacher en 2013 une espèce rare de baleine, la Baleine pygmée (Caperea marginata). Cependant le site « Mammal Species of the World » (MSW) l'inclut dans une autre famille : les Neobalaenidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (31 décembre 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (31 décembre 2016) :
 sous-famille Cetotheriinae Whitmore &amp; Barnes, 2008 †
 genre Cetotherium Brandt, 1843 †
 genre Kurdalagonus Tarasenko &amp; Lopatin, 2012 †
@@ -524,7 +538,7 @@
 genre Herpetocetus Van Beneden, 1872 †
 genre Vampalus Tarasenko &amp; Lopatin, 2012 †
 sous-famille Neobalaeninae Miller, 1923
-genre Caperea Gray, 1864 -- Baleine pygmée[3]
+genre Caperea Gray, 1864 -- Baleine pygmée
 genre Miocaperea Bisconti, 2012 †
 genre Brandtocetus Goldin &amp; Startsev, 2014 †
 			Caperea marginata
